--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn1-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nlgn1-Nrxn2.xlsx
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.039512</v>
+        <v>0.007742333333333334</v>
       </c>
       <c r="N2">
-        <v>0.118536</v>
+        <v>0.023227</v>
       </c>
       <c r="O2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="P2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="Q2">
-        <v>0.008682182490666665</v>
+        <v>0.001701264195777778</v>
       </c>
       <c r="R2">
-        <v>0.07813964241599999</v>
+        <v>0.015311377762</v>
       </c>
       <c r="S2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
       <c r="T2">
-        <v>0.006183359004302676</v>
+        <v>0.001217676423630818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>18.117162</v>
       </c>
       <c r="O3">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="P3">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
       <c r="Q3">
         <v>1.326993543708</v>
@@ -632,10 +632,10 @@
         <v>11.942941893372</v>
       </c>
       <c r="S3">
-        <v>0.9450708374258476</v>
+        <v>0.9497929577862038</v>
       </c>
       <c r="T3">
-        <v>0.9450708374258477</v>
+        <v>0.9497929577862039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3114883333333333</v>
+        <v>0.3114883333333334</v>
       </c>
       <c r="N4">
-        <v>0.934465</v>
+        <v>0.9344650000000001</v>
       </c>
       <c r="O4">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="P4">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
       <c r="Q4">
-        <v>0.06844499275444443</v>
+        <v>0.06844499275444445</v>
       </c>
       <c r="R4">
-        <v>0.61600493479</v>
+        <v>0.6160049347900001</v>
       </c>
       <c r="S4">
-        <v>0.04874580356984966</v>
+        <v>0.04898936579016542</v>
       </c>
       <c r="T4">
-        <v>0.04874580356984967</v>
+        <v>0.04898936579016543</v>
       </c>
     </row>
   </sheetData>
